--- a/txhistory.xlsx
+++ b/txhistory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17160" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="17160" yWindow="20" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>Exchange</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>gain/loss</t>
+  </si>
+  <si>
+    <t>Bitfinex</t>
   </si>
 </sst>
 </file>
@@ -94,8 +97,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -116,7 +121,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -124,6 +129,7 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -131,6 +137,7 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -460,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -558,6 +565,32 @@
       <c r="F6" s="2">
         <f>(B6/D5)-1</f>
         <v>-3.0767947969648768E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1060.8699999999999</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2">
+        <f>(B7/B6)-1</f>
+        <v>1.4060946700313437E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>997.35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/txhistory.xlsx
+++ b/txhistory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17160" yWindow="20" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="17160" yWindow="60" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>Exchange</t>
   </si>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -590,6 +590,17 @@
         <v>997.35</v>
       </c>
       <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1045</v>
+      </c>
+      <c r="C9" t="s">
         <v>3</v>
       </c>
     </row>
